--- a/biology/Médecine/1578_en_santé_et_médecine/1578_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1578_en_santé_et_médecine/1578_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1578_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1578_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1578 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1578_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1578_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La Sorbonne condamne cinquante-neuf thèses de Paracelse[1].
-1578-1580 : à Paris, procès de Roch Le Baillif, accusé devant le Parlement par la Faculté d'exercice illégal de la médecine après la publication de son Demosterion (1578), apologie du paracelsisme[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La Sorbonne condamne cinquante-neuf thèses de Paracelse.
+1578-1580 : à Paris, procès de Roch Le Baillif, accusé devant le Parlement par la Faculté d'exercice illégal de la médecine après la publication de son Demosterion (1578), apologie du paracelsisme.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1578_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1578_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +556,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cristobal Acosta publie à Burgos son « Traité des drogues et remèdes des Indes orientales » (Tractado de las drogas y medicinas de las Indias orientales[2]), « version corrigée et augmentée, basée sur ses propres observations[3] » des Coloquios dos simples (1563) de Garcia de Orta[4].
-Roch Le Baillif publie à Rennes son Demosterion, « jalon marquant de la diffusion des idées de Paracelse en France[1],[5] ».
-Julien Le Paulmier publie chez Denis Duval, à Paris, son traité « sur les maladies contagieuses » (De morbis contagiosis[6]).
-Li Shizhen termine la rédaction de la première version de son grand traité d'herbologie (Bencao gangmu)[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cristobal Acosta publie à Burgos son « Traité des drogues et remèdes des Indes orientales » (Tractado de las drogas y medicinas de las Indias orientales), « version corrigée et augmentée, basée sur ses propres observations » des Coloquios dos simples (1563) de Garcia de Orta.
+Roch Le Baillif publie à Rennes son Demosterion, « jalon marquant de la diffusion des idées de Paracelse en France, ».
+Julien Le Paulmier publie chez Denis Duval, à Paris, son traité « sur les maladies contagieuses » (De morbis contagiosis).
+Li Shizhen termine la rédaction de la première version de son grand traité d'herbologie (Bencao gangmu).</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1578_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1578_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1er avril : William Harvey (mort en 1657), médecin anglais[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er avril : William Harvey (mort en 1657), médecin anglais.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1578_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1578_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,11 +623,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12 octobre : Cornelius Gemma (né en 1535), médecin et astronome flamand[9],[10].
-Antonio Mizauld (né en 1510), médecin et astrologue français[11].
-Pierre Franco (né entre 1500 et 1505), chirurgien lithotomiste français[12].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12 octobre : Cornelius Gemma (né en 1535), médecin et astronome flamand,.
+Antonio Mizauld (né en 1510), médecin et astrologue français.
+Pierre Franco (né entre 1500 et 1505), chirurgien lithotomiste français.
 </t>
         </is>
       </c>
